--- a/xlsparse/attendeesh.xlsx
+++ b/xlsparse/attendeesh.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14840" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="attendees1h" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="254">
   <si>
     <t>Jackson</t>
   </si>
@@ -755,13 +755,51 @@
   </si>
   <si>
     <t>alexander.stone@gmail.com</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Decimal</t>
+  </si>
+  <si>
+    <t>Empty Cells</t>
+  </si>
+  <si>
+    <t>Boolean Test</t>
+  </si>
+  <si>
+    <t>Divide by 0</t>
+  </si>
+  <si>
+    <t>NUM Error</t>
+  </si>
+  <si>
+    <t>Name Error</t>
+  </si>
+  <si>
+    <t>Ref Error</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -810,22 +848,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="8">
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1155,18 +1202,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="3"/>
+    <col min="6" max="6" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>205</v>
       </c>
@@ -1176,8 +1226,35 @@
       <c r="C1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="G1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I1" t="s">
+        <v>250</v>
+      </c>
+      <c r="J1" t="s">
+        <v>251</v>
+      </c>
+      <c r="K1" t="s">
+        <v>252</v>
+      </c>
+      <c r="L1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1187,8 +1264,40 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="2">
+        <f ca="1">RANDBETWEEN(37000,NOW())</f>
+        <v>40030</v>
+      </c>
+      <c r="E2" s="3">
+        <f ca="1">RANDBETWEEN(100,1000)</f>
+        <v>749</v>
+      </c>
+      <c r="F2" s="4">
+        <f ca="1">RANDBETWEEN(0,10000)/10000</f>
+        <v>0.38080000000000003</v>
+      </c>
+      <c r="H2" t="b">
+        <f ca="1">IF(E2&lt;500,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f ca="1">IF(H2,1/0,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J2" t="e">
+        <f>ASIN(2)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K2" t="e">
+        <f ca="1">foobar()</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L2" t="e">
+        <f ca="1">L7(foo)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1198,8 +1307,40 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D66" ca="1" si="0">RANDBETWEEN(37000,NOW())</f>
+        <v>38552</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" ref="E3:E66" ca="1" si="1">RANDBETWEEN(100,1000)</f>
+        <v>982</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" ref="F3:F66" ca="1" si="2">RANDBETWEEN(0,10000)/10000</f>
+        <v>0.87890000000000001</v>
+      </c>
+      <c r="H3" t="b">
+        <f t="shared" ref="H3:H66" ca="1" si="3">IF(E3&lt;500,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I66" ca="1" si="4">IF(H3,1/0,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" t="e">
+        <f t="shared" ref="J3:J66" si="5">ASIN(2)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K3" t="e">
+        <f t="shared" ref="K3:K66" ca="1" si="6">foobar()</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L3" t="e">
+        <f t="shared" ref="L3:L66" ca="1" si="7">L8(foo)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1209,8 +1350,40 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>37502</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>157</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.2636</v>
+      </c>
+      <c r="H4" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J4" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K4" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L4" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1220,8 +1393,40 @@
       <c r="C5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>37575</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>461</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.71130000000000004</v>
+      </c>
+      <c r="H5" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J5" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K5" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L5" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1231,8 +1436,40 @@
       <c r="C6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>40376</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>193</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.3700000000000003E-2</v>
+      </c>
+      <c r="H6" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J6" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K6" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L6" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1242,8 +1479,40 @@
       <c r="C7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>38862</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>792</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.88970000000000005</v>
+      </c>
+      <c r="H7" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J7" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K7" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L7" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1253,8 +1522,40 @@
       <c r="C8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>40117</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>569</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.41520000000000001</v>
+      </c>
+      <c r="H8" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J8" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K8" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L8" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1264,8 +1565,40 @@
       <c r="C9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>40093</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>528</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.60240000000000005</v>
+      </c>
+      <c r="H9" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J9" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K9" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L9" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1275,8 +1608,40 @@
       <c r="C10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>40286</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>906</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.35360000000000003</v>
+      </c>
+      <c r="H10" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J10" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K10" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L10" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1286,8 +1651,40 @@
       <c r="C11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>38460</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>359</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.1115</v>
+      </c>
+      <c r="H11" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J11" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K11" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L11" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1297,8 +1694,40 @@
       <c r="C12" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>38793</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>137</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.66479999999999995</v>
+      </c>
+      <c r="H12" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J12" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K12" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L12" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -1308,8 +1737,40 @@
       <c r="C13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>40345</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>787</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.96150000000000002</v>
+      </c>
+      <c r="H13" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J13" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K13" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L13" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1319,8 +1780,40 @@
       <c r="C14" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>39130</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>844</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.57069999999999999</v>
+      </c>
+      <c r="H14" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J14" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K14" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L14" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -1330,8 +1823,40 @@
       <c r="C15" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>39562</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>202</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.68520000000000003</v>
+      </c>
+      <c r="H15" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J15" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K15" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L15" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1341,8 +1866,40 @@
       <c r="C16" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>37198</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>262</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.9345</v>
+      </c>
+      <c r="H16" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J16" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K16" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L16" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1352,8 +1909,40 @@
       <c r="C17" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>40111</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>243</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.81530000000000002</v>
+      </c>
+      <c r="H17" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J17" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K17" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L17" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -1363,8 +1952,40 @@
       <c r="C18" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>37291</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>686</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.1072</v>
+      </c>
+      <c r="H18" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J18" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K18" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L18" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1374,8 +1995,40 @@
       <c r="C19" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>38855</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>225</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.66090000000000004</v>
+      </c>
+      <c r="H19" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J19" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K19" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L19" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -1385,8 +2038,40 @@
       <c r="C20" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>37766</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>328</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.43759999999999999</v>
+      </c>
+      <c r="H20" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J20" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K20" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L20" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1396,8 +2081,40 @@
       <c r="C21" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>39094</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>204</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.4768</v>
+      </c>
+      <c r="H21" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J21" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K21" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L21" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -1407,8 +2124,40 @@
       <c r="C22" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>38896</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>984</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.1198</v>
+      </c>
+      <c r="H22" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J22" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K22" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L22" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -1418,8 +2167,40 @@
       <c r="C23" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>40462</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>731</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.0500000000000001E-2</v>
+      </c>
+      <c r="H23" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J23" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K23" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L23" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -1429,8 +2210,40 @@
       <c r="C24" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>38991</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>194</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.40079999999999999</v>
+      </c>
+      <c r="H24" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J24" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K24" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L24" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>63</v>
       </c>
@@ -1440,8 +2253,40 @@
       <c r="C25" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>40578</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>177</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.53269999999999995</v>
+      </c>
+      <c r="H25" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J25" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K25" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L25" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>66</v>
       </c>
@@ -1451,8 +2296,40 @@
       <c r="C26" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>37868</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>770</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.3099999999999999E-2</v>
+      </c>
+      <c r="H26" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J26" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K26" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L26" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>69</v>
       </c>
@@ -1462,8 +2339,40 @@
       <c r="C27" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>38782</v>
+      </c>
+      <c r="E27" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>570</v>
+      </c>
+      <c r="F27" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.66849999999999998</v>
+      </c>
+      <c r="H27" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J27" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K27" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L27" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>72</v>
       </c>
@@ -1473,8 +2382,40 @@
       <c r="C28" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>37841</v>
+      </c>
+      <c r="E28" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>660</v>
+      </c>
+      <c r="F28" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.6179</v>
+      </c>
+      <c r="H28" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J28" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K28" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L28" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1484,8 +2425,40 @@
       <c r="C29" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>37719</v>
+      </c>
+      <c r="E29" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>917</v>
+      </c>
+      <c r="F29" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.2001</v>
+      </c>
+      <c r="H29" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J29" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K29" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L29" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -1495,8 +2468,40 @@
       <c r="C30" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>37102</v>
+      </c>
+      <c r="E30" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>394</v>
+      </c>
+      <c r="F30" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.23730000000000001</v>
+      </c>
+      <c r="H30" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J30" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K30" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L30" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>80</v>
       </c>
@@ -1506,8 +2511,40 @@
       <c r="C31" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>37036</v>
+      </c>
+      <c r="E31" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>147</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.35020000000000001</v>
+      </c>
+      <c r="H31" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J31" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K31" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L31" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>83</v>
       </c>
@@ -1517,8 +2554,40 @@
       <c r="C32" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>40062</v>
+      </c>
+      <c r="E32" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>710</v>
+      </c>
+      <c r="F32" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.1500000000000002E-2</v>
+      </c>
+      <c r="H32" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J32" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K32" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L32" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
         <v>86</v>
       </c>
@@ -1528,8 +2597,40 @@
       <c r="C33" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>38266</v>
+      </c>
+      <c r="E33" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>634</v>
+      </c>
+      <c r="F33" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.49759999999999999</v>
+      </c>
+      <c r="H33" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J33" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K33" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L33" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>88</v>
       </c>
@@ -1539,8 +2640,40 @@
       <c r="C34" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>38071</v>
+      </c>
+      <c r="E34" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>733</v>
+      </c>
+      <c r="F34" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.98970000000000002</v>
+      </c>
+      <c r="H34" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J34" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K34" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L34" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
         <v>91</v>
       </c>
@@ -1550,8 +2683,40 @@
       <c r="C35" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>39860</v>
+      </c>
+      <c r="E35" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>900</v>
+      </c>
+      <c r="F35" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="H35" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J35" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K35" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L35" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
         <v>86</v>
       </c>
@@ -1561,8 +2726,40 @@
       <c r="C36" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>37192</v>
+      </c>
+      <c r="E36" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>686</v>
+      </c>
+      <c r="F36" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="H36" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J36" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K36" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L36" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
         <v>86</v>
       </c>
@@ -1572,8 +2769,40 @@
       <c r="C37" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>37467</v>
+      </c>
+      <c r="E37" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>415</v>
+      </c>
+      <c r="F37" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.4214</v>
+      </c>
+      <c r="H37" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J37" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K37" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L37" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
         <v>91</v>
       </c>
@@ -1583,8 +2812,40 @@
       <c r="C38" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>37095</v>
+      </c>
+      <c r="E38" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>776</v>
+      </c>
+      <c r="F38" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="H38" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J38" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K38" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L38" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
         <v>98</v>
       </c>
@@ -1594,8 +2855,40 @@
       <c r="C39" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>38468</v>
+      </c>
+      <c r="E39" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>134</v>
+      </c>
+      <c r="F39" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.879</v>
+      </c>
+      <c r="H39" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J39" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K39" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L39" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" t="s">
         <v>101</v>
       </c>
@@ -1605,8 +2898,40 @@
       <c r="C40" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>39209</v>
+      </c>
+      <c r="E40" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>952</v>
+      </c>
+      <c r="F40" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.5978</v>
+      </c>
+      <c r="H40" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J40" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K40" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L40" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" t="s">
         <v>104</v>
       </c>
@@ -1616,8 +2941,40 @@
       <c r="C41" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>39749</v>
+      </c>
+      <c r="E41" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>329</v>
+      </c>
+      <c r="F41" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.70640000000000003</v>
+      </c>
+      <c r="H41" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J41" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K41" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L41" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
         <v>107</v>
       </c>
@@ -1627,8 +2984,40 @@
       <c r="C42" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>39447</v>
+      </c>
+      <c r="E42" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>786</v>
+      </c>
+      <c r="F42" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.1578</v>
+      </c>
+      <c r="H42" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J42" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K42" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L42" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>109</v>
       </c>
@@ -1638,8 +3027,40 @@
       <c r="C43" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>38926</v>
+      </c>
+      <c r="E43" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>468</v>
+      </c>
+      <c r="F43" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.3099999999999997E-2</v>
+      </c>
+      <c r="H43" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J43" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K43" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L43" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
         <v>112</v>
       </c>
@@ -1649,8 +3070,40 @@
       <c r="C44" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>38927</v>
+      </c>
+      <c r="E44" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="F44" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.1399999999999995E-2</v>
+      </c>
+      <c r="H44" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J44" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K44" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L44" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
         <v>115</v>
       </c>
@@ -1660,8 +3113,40 @@
       <c r="C45" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>39600</v>
+      </c>
+      <c r="E45" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>305</v>
+      </c>
+      <c r="F45" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.15840000000000001</v>
+      </c>
+      <c r="H45" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J45" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K45" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L45" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
         <v>118</v>
       </c>
@@ -1671,8 +3156,40 @@
       <c r="C46" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>40187</v>
+      </c>
+      <c r="E46" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>944</v>
+      </c>
+      <c r="F46" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.20569999999999999</v>
+      </c>
+      <c r="H46" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J46" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K46" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L46" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
         <v>121</v>
       </c>
@@ -1682,8 +3199,40 @@
       <c r="C47" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>37935</v>
+      </c>
+      <c r="E47" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>663</v>
+      </c>
+      <c r="F47" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.18790000000000001</v>
+      </c>
+      <c r="H47" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J47" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K47" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L47" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
         <v>124</v>
       </c>
@@ -1693,8 +3242,40 @@
       <c r="C48" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>37851</v>
+      </c>
+      <c r="E48" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>889</v>
+      </c>
+      <c r="F48" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.96160000000000001</v>
+      </c>
+      <c r="H48" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J48" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K48" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L48" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
         <v>127</v>
       </c>
@@ -1704,8 +3285,40 @@
       <c r="C49" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>38724</v>
+      </c>
+      <c r="E49" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>541</v>
+      </c>
+      <c r="F49" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.3795</v>
+      </c>
+      <c r="H49" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J49" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K49" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L49" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" t="s">
         <v>130</v>
       </c>
@@ -1715,8 +3328,40 @@
       <c r="C50" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>39768</v>
+      </c>
+      <c r="E50" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>201</v>
+      </c>
+      <c r="F50" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.94869999999999999</v>
+      </c>
+      <c r="H50" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J50" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K50" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L50" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" t="s">
         <v>133</v>
       </c>
@@ -1726,8 +3371,40 @@
       <c r="C51" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>37662</v>
+      </c>
+      <c r="E51" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>805</v>
+      </c>
+      <c r="F51" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.66949999999999998</v>
+      </c>
+      <c r="H51" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J51" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K51" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L51" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" t="s">
         <v>136</v>
       </c>
@@ -1737,8 +3414,40 @@
       <c r="C52" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>38065</v>
+      </c>
+      <c r="E52" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>224</v>
+      </c>
+      <c r="F52" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.7100000000000003E-2</v>
+      </c>
+      <c r="H52" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J52" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K52" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L52" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" t="s">
         <v>138</v>
       </c>
@@ -1748,8 +3457,40 @@
       <c r="C53" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>40194</v>
+      </c>
+      <c r="E53" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>347</v>
+      </c>
+      <c r="F53" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.89759999999999995</v>
+      </c>
+      <c r="H53" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J53" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K53" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L53" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" t="s">
         <v>140</v>
       </c>
@@ -1759,8 +3500,40 @@
       <c r="C54" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>38110</v>
+      </c>
+      <c r="E54" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>287</v>
+      </c>
+      <c r="F54" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="H54" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J54" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K54" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L54" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" t="s">
         <v>143</v>
       </c>
@@ -1770,8 +3543,40 @@
       <c r="C55" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>38344</v>
+      </c>
+      <c r="E55" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>836</v>
+      </c>
+      <c r="F55" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.98660000000000003</v>
+      </c>
+      <c r="H55" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J55" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K55" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L55" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" t="s">
         <v>115</v>
       </c>
@@ -1781,8 +3586,40 @@
       <c r="C56" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>37880</v>
+      </c>
+      <c r="E56" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>266</v>
+      </c>
+      <c r="F56" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.19950000000000001</v>
+      </c>
+      <c r="H56" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J56" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K56" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L56" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" t="s">
         <v>147</v>
       </c>
@@ -1792,8 +3629,40 @@
       <c r="C57" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>37309</v>
+      </c>
+      <c r="E57" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>894</v>
+      </c>
+      <c r="F57" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.2757</v>
+      </c>
+      <c r="H57" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J57" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K57" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L57" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" t="s">
         <v>150</v>
       </c>
@@ -1803,8 +3672,40 @@
       <c r="C58" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>39369</v>
+      </c>
+      <c r="E58" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>572</v>
+      </c>
+      <c r="F58" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.36530000000000001</v>
+      </c>
+      <c r="H58" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J58" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K58" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L58" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" t="s">
         <v>152</v>
       </c>
@@ -1814,8 +3715,40 @@
       <c r="C59" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>38784</v>
+      </c>
+      <c r="E59" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>764</v>
+      </c>
+      <c r="F59" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.77629999999999999</v>
+      </c>
+      <c r="H59" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J59" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K59" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L59" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" t="s">
         <v>152</v>
       </c>
@@ -1825,8 +3758,40 @@
       <c r="C60" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>38675</v>
+      </c>
+      <c r="E60" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>149</v>
+      </c>
+      <c r="F60" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.27329999999999999</v>
+      </c>
+      <c r="H60" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J60" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K60" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L60" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -1836,8 +3801,40 @@
       <c r="C61" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>38506</v>
+      </c>
+      <c r="E61" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>385</v>
+      </c>
+      <c r="F61" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.3624</v>
+      </c>
+      <c r="H61" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J61" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K61" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L61" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" t="s">
         <v>136</v>
       </c>
@@ -1847,8 +3844,40 @@
       <c r="C62" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>37660</v>
+      </c>
+      <c r="E62" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>539</v>
+      </c>
+      <c r="F62" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.48559999999999998</v>
+      </c>
+      <c r="H62" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J62" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K62" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L62" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" t="s">
         <v>159</v>
       </c>
@@ -1858,8 +3887,40 @@
       <c r="C63" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>40170</v>
+      </c>
+      <c r="E63" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>396</v>
+      </c>
+      <c r="F63" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="H63" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J63" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K63" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L63" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" t="s">
         <v>161</v>
       </c>
@@ -1869,8 +3930,40 @@
       <c r="C64" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>37640</v>
+      </c>
+      <c r="E64" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>282</v>
+      </c>
+      <c r="F64" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.59419999999999995</v>
+      </c>
+      <c r="H64" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J64" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K64" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L64" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" t="s">
         <v>124</v>
       </c>
@@ -1880,8 +3973,40 @@
       <c r="C65" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>38924</v>
+      </c>
+      <c r="E65" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>629</v>
+      </c>
+      <c r="F65" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.27789999999999998</v>
+      </c>
+      <c r="H65" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J65" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K65" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L65" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" t="s">
         <v>166</v>
       </c>
@@ -1891,8 +4016,40 @@
       <c r="C66" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>40574</v>
+      </c>
+      <c r="E66" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="F66" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.96140000000000003</v>
+      </c>
+      <c r="H66" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J66" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K66" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L66" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" t="s">
         <v>169</v>
       </c>
@@ -1902,8 +4059,40 @@
       <c r="C67" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67" s="2">
+        <f t="shared" ref="D67:D82" ca="1" si="8">RANDBETWEEN(37000,NOW())</f>
+        <v>38239</v>
+      </c>
+      <c r="E67" s="3">
+        <f t="shared" ref="E67:E82" ca="1" si="9">RANDBETWEEN(100,1000)</f>
+        <v>139</v>
+      </c>
+      <c r="F67" s="4">
+        <f t="shared" ref="F67:F82" ca="1" si="10">RANDBETWEEN(0,10000)/10000</f>
+        <v>0.81020000000000003</v>
+      </c>
+      <c r="H67" t="b">
+        <f t="shared" ref="H67:H82" ca="1" si="11">IF(E67&lt;500,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="I67" t="e">
+        <f t="shared" ref="I67:I82" ca="1" si="12">IF(H67,1/0,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J67" t="e">
+        <f t="shared" ref="J67:J82" si="13">ASIN(2)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K67" t="e">
+        <f t="shared" ref="K67:K82" ca="1" si="14">foobar()</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L67" t="e">
+        <f t="shared" ref="L67:L82" ca="1" si="15">L72(foo)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" t="s">
         <v>18</v>
       </c>
@@ -1913,8 +4102,40 @@
       <c r="C68" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="D68" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>39342</v>
+      </c>
+      <c r="E68" s="3">
+        <f t="shared" ca="1" si="9"/>
+        <v>927</v>
+      </c>
+      <c r="F68" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.85509999999999997</v>
+      </c>
+      <c r="H68" t="b">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J68" t="e">
+        <f t="shared" si="13"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K68" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L68" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" t="s">
         <v>91</v>
       </c>
@@ -1924,8 +4145,40 @@
       <c r="C69" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="D69" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>39609</v>
+      </c>
+      <c r="E69" s="3">
+        <f t="shared" ca="1" si="9"/>
+        <v>107</v>
+      </c>
+      <c r="F69" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.94320000000000004</v>
+      </c>
+      <c r="H69" t="b">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J69" t="e">
+        <f t="shared" si="13"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K69" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L69" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" t="s">
         <v>176</v>
       </c>
@@ -1935,8 +4188,40 @@
       <c r="C70" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="D70" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>39441</v>
+      </c>
+      <c r="E70" s="3">
+        <f t="shared" ca="1" si="9"/>
+        <v>847</v>
+      </c>
+      <c r="F70" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.44569999999999999</v>
+      </c>
+      <c r="H70" t="b">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J70" t="e">
+        <f t="shared" si="13"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K70" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L70" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" t="s">
         <v>55</v>
       </c>
@@ -1946,8 +4231,40 @@
       <c r="C71" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="D71" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>38496</v>
+      </c>
+      <c r="E71" s="3">
+        <f t="shared" ca="1" si="9"/>
+        <v>748</v>
+      </c>
+      <c r="F71" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.41310000000000002</v>
+      </c>
+      <c r="H71" t="b">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J71" t="e">
+        <f t="shared" si="13"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K71" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L71" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" t="s">
         <v>180</v>
       </c>
@@ -1957,8 +4274,40 @@
       <c r="C72" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="D72" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>38872</v>
+      </c>
+      <c r="E72" s="3">
+        <f t="shared" ca="1" si="9"/>
+        <v>130</v>
+      </c>
+      <c r="F72" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.60389999999999999</v>
+      </c>
+      <c r="H72" t="b">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J72" t="e">
+        <f t="shared" si="13"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K72" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L72" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" t="s">
         <v>183</v>
       </c>
@@ -1968,8 +4317,40 @@
       <c r="C73" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="D73" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>37917</v>
+      </c>
+      <c r="E73" s="3">
+        <f t="shared" ca="1" si="9"/>
+        <v>347</v>
+      </c>
+      <c r="F73" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.62909999999999999</v>
+      </c>
+      <c r="H73" t="b">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J73" t="e">
+        <f t="shared" si="13"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K73" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L73" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" t="s">
         <v>186</v>
       </c>
@@ -1979,8 +4360,40 @@
       <c r="C74" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="D74" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>38421</v>
+      </c>
+      <c r="E74" s="3">
+        <f t="shared" ca="1" si="9"/>
+        <v>298</v>
+      </c>
+      <c r="F74" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.77359999999999995</v>
+      </c>
+      <c r="H74" t="b">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J74" t="e">
+        <f t="shared" si="13"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K74" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L74" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" t="s">
         <v>159</v>
       </c>
@@ -1990,8 +4403,40 @@
       <c r="C75" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="D75" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>38899</v>
+      </c>
+      <c r="E75" s="3">
+        <f t="shared" ca="1" si="9"/>
+        <v>233</v>
+      </c>
+      <c r="F75" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>3.6600000000000001E-2</v>
+      </c>
+      <c r="H75" t="b">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J75" t="e">
+        <f t="shared" si="13"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K75" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L75" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" t="s">
         <v>190</v>
       </c>
@@ -2001,8 +4446,40 @@
       <c r="C76" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>38092</v>
+      </c>
+      <c r="E76" s="3">
+        <f t="shared" ca="1" si="9"/>
+        <v>574</v>
+      </c>
+      <c r="F76" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.48620000000000002</v>
+      </c>
+      <c r="H76" t="b">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J76" t="e">
+        <f t="shared" si="13"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K76" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L76" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" t="s">
         <v>18</v>
       </c>
@@ -2012,8 +4489,40 @@
       <c r="C77" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="D77" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>37439</v>
+      </c>
+      <c r="E77" s="3">
+        <f t="shared" ca="1" si="9"/>
+        <v>473</v>
+      </c>
+      <c r="F77" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.84179999999999999</v>
+      </c>
+      <c r="H77" t="b">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J77" t="e">
+        <f t="shared" si="13"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K77" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L77" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" t="s">
         <v>193</v>
       </c>
@@ -2023,8 +4532,40 @@
       <c r="C78" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="D78" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>38721</v>
+      </c>
+      <c r="E78" s="3">
+        <f t="shared" ca="1" si="9"/>
+        <v>516</v>
+      </c>
+      <c r="F78" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.78969999999999996</v>
+      </c>
+      <c r="H78" t="b">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J78" t="e">
+        <f t="shared" si="13"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K78" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L78" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" t="s">
         <v>196</v>
       </c>
@@ -2034,8 +4575,40 @@
       <c r="C79" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="D79" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>38809</v>
+      </c>
+      <c r="E79" s="3">
+        <f t="shared" ca="1" si="9"/>
+        <v>814</v>
+      </c>
+      <c r="F79" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.4647</v>
+      </c>
+      <c r="H79" t="b">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J79" t="e">
+        <f t="shared" si="13"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K79" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L79" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" t="s">
         <v>56</v>
       </c>
@@ -2045,8 +4618,40 @@
       <c r="C80" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="D80" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>37697</v>
+      </c>
+      <c r="E80" s="3">
+        <f t="shared" ca="1" si="9"/>
+        <v>838</v>
+      </c>
+      <c r="F80" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.88249999999999995</v>
+      </c>
+      <c r="H80" t="b">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J80" t="e">
+        <f t="shared" si="13"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K80" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L80" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" t="s">
         <v>201</v>
       </c>
@@ -2056,8 +4661,40 @@
       <c r="C81" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="D81" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>37094</v>
+      </c>
+      <c r="E81" s="3">
+        <f t="shared" ca="1" si="9"/>
+        <v>473</v>
+      </c>
+      <c r="F81" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>6.2300000000000001E-2</v>
+      </c>
+      <c r="H81" t="b">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J81" t="e">
+        <f t="shared" si="13"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K81" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L81" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" t="s">
         <v>203</v>
       </c>
@@ -2066,6 +4703,38 @@
       </c>
       <c r="C82" t="s">
         <v>204</v>
+      </c>
+      <c r="D82" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>37128</v>
+      </c>
+      <c r="E82" s="3">
+        <f t="shared" ca="1" si="9"/>
+        <v>455</v>
+      </c>
+      <c r="F82" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.99560000000000004</v>
+      </c>
+      <c r="H82" t="b">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J82" t="e">
+        <f t="shared" si="13"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K82" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L82" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -2083,7 +4752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
